--- a/region lookup.xlsx
+++ b/region lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\PycharmProjects\MissedStopsReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147AB8F-8967-4D84-AA08-BE05A9296EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783DAE1-1BF9-4150-880C-A550099510BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="41190" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="5715" windowWidth="34170" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Territory</t>
   </si>
   <si>
-    <t>DSD</t>
-  </si>
-  <si>
     <t>Market - D. DeShong</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>Market - C. Hastings</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,520 +572,520 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
         <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1"/>
     </row>
